--- a/biology/Zoologie/Canis_lupus_hodophilax/Canis_lupus_hodophilax.xlsx
+++ b/biology/Zoologie/Canis_lupus_hodophilax/Canis_lupus_hodophilax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Loup de Honshū (Canis lupus hodophilax) est une sous-espèce éteinte de loups de l'espèce Canis lupus (loup gris).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canis lupus hodophilax est un loup à pelage gris. À quatre pattes, ses épaules s'élèvent à un peu plus de 30 cm du sol[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canis lupus hodophilax est un loup à pelage gris. À quatre pattes, ses épaules s'élèvent à un peu plus de 30 cm du sol.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie et dénominations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme hodophilax, assemblage de deux racines grecques ὁδός / hodos (« chemin ») et φύλαξις / phulaxis (« garde »), signifie « gardien de chemin ». Le nom scientifique Canis lupus hodophilax fait référence à une légende japonaise qui affirme que les personnes circulant, à la nuit tombée, sur un chemin de montagne sont parfois accompagnées par un loup qui veille à leur sécurité[1]. Le mammifère de montagne est couramment appelé ōkami, Nihon Ōkami[2] ou encore yamainu (chien de montagne)[3], au Japon[1],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme hodophilax, assemblage de deux racines grecques ὁδός / hodos (« chemin ») et φύλαξις / phulaxis (« garde »), signifie « gardien de chemin ». Le nom scientifique Canis lupus hodophilax fait référence à une légende japonaise qui affirme que les personnes circulant, à la nuit tombée, sur un chemin de montagne sont parfois accompagnées par un loup qui veille à leur sécurité. Le mammifère de montagne est couramment appelé ōkami, Nihon Ōkami ou encore yamainu (chien de montagne), au Japon,.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Canis lupus hodophilax est identifiée en 1839, par le zoologiste néerlandais Coenraad Jacob Temminck[5].
-Comme pour le Loup d'Hokkaido, disparu à la fin des années 1880[1], le déboisement de son habitat, à partir de la fin du XVIe siècle, la rage, à partir de 1732, et la chasse, pour protéger le bétail, ont eu raison de l’espèce, présente au Japon sur les îles Honshū, Shikoku et Kyūshū[4],[6],[1]. Le Loup de Honshū, considéré jusqu'à l'époque d'Edo (1603-1868) par les fermiers comme une divinité protectrice des cultures contre les sangliers et les cerfs, est officiellement déclaré espèce éteinte en 1905[5],[6]. Cette année-là, des naturalistes étrangers, venus collecter au Japon des animaux exotiques pour la société zoologique de Londres, achètent à des chasseurs le crâne et la fourrure d'un Loup du Japon. Les restes du canidé, découvert à Higashiyoshino, sont conservés au musée d'histoire naturelle de Londres[4],[6]. En 2020, quatre spécimens empaillés de Canis lupus hodophilax existent dans le Monde ; l'un d'entre eux, ramené du Japon par Philipp Franz von Siebold, est préservé au musée national d'histoire naturelle de Leyde, aux Pays-Bas, un autre au musée national de la nature et des sciences de Tokyo[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Canis lupus hodophilax est identifiée en 1839, par le zoologiste néerlandais Coenraad Jacob Temminck.
+Comme pour le Loup d'Hokkaido, disparu à la fin des années 1880, le déboisement de son habitat, à partir de la fin du XVIe siècle, la rage, à partir de 1732, et la chasse, pour protéger le bétail, ont eu raison de l’espèce, présente au Japon sur les îles Honshū, Shikoku et Kyūshū. Le Loup de Honshū, considéré jusqu'à l'époque d'Edo (1603-1868) par les fermiers comme une divinité protectrice des cultures contre les sangliers et les cerfs, est officiellement déclaré espèce éteinte en 1905,. Cette année-là, des naturalistes étrangers, venus collecter au Japon des animaux exotiques pour la société zoologique de Londres, achètent à des chasseurs le crâne et la fourrure d'un Loup du Japon. Les restes du canidé, découvert à Higashiyoshino, sont conservés au musée d'histoire naturelle de Londres,. En 2020, quatre spécimens empaillés de Canis lupus hodophilax existent dans le Monde ; l'un d'entre eux, ramené du Japon par Philipp Franz von Siebold, est préservé au musée national d'histoire naturelle de Leyde, aux Pays-Bas, un autre au musée national de la nature et des sciences de Tokyo.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des analyses génétiques, effectuées par un chercheur japonais du Collège doctoral de recherche avancée, ont établi que Canis lupus hodophilax est originaire du continent asiatique. L'animal, une sous-espèce de Canis lupus  parfois considérée comme une espèce distincte[1], aurait colonisé l'archipel nippon depuis la péninsule de Corée durant la période 125 000–25 000 ans avant le présent (Pléistocène supérieur)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des analyses génétiques, effectuées par un chercheur japonais du Collège doctoral de recherche avancée, ont établi que Canis lupus hodophilax est originaire du continent asiatique. L'animal, une sous-espèce de Canis lupus  parfois considérée comme une espèce distincte, aurait colonisé l'archipel nippon depuis la péninsule de Corée durant la période 125 000–25 000 ans avant le présent (Pléistocène supérieur).
 </t>
         </is>
       </c>
@@ -636,10 +656,12 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de loup est représentée dans le film Les Enfants loups, Ame et Yuki, dans lequel l'homme-loup est l'unique descendant de cette race anéantie par les hommes, éteinte depuis 115 ans (en respectant les dates à l'époque de la sortie du film, en 2012).
-Dans le manga One Piece, Yamato a mangé le fruit de type Zoan Mythique "Inu Inu no Mi" qui lui permet de se transformer en Oguchi-no-Magami, la version déifiée du loup de Honshū[7]. 
+Dans le manga One Piece, Yamato a mangé le fruit de type Zoan Mythique "Inu Inu no Mi" qui lui permet de se transformer en Oguchi-no-Magami, la version déifiée du loup de Honshū. 
 </t>
         </is>
       </c>
